--- a/kittyserver/gametools/parseExcelTool/Excel/Spread.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Spread.xlsx
@@ -11,14 +11,14 @@
     <sheet name="扩地计算_1_Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">扩地表_3_Spread!$A$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">扩地表_3_Spread!$A$1:$D$96</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
   <si>
     <t>次数</t>
   </si>
@@ -361,6 +361,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3001_4,3002_3,3009_3</t>
+  </si>
+  <si>
     <t>3001_4,3002_4,3009_3</t>
   </si>
   <si>
@@ -475,28 +478,8 @@
     <t>3001_40,3002_40,3009_40</t>
   </si>
   <si>
-    <t>3001_40,3002_40,3009_41</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_42</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_43</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_44</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_45</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_46</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_47</t>
-  </si>
-  <si>
-    <t>3001_40,3002_40,3009_48</t>
+    <t>3002_2,3001_1,3009_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -867,13 +850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -976,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -993,7 +976,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1004,10 +987,10 @@
         <v>85</v>
       </c>
       <c r="C9" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1018,10 +1001,10 @@
         <v>86</v>
       </c>
       <c r="C10" s="2">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="D10" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1032,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="D11" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1046,10 +1029,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D12" s="2">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1060,10 +1043,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>1500</v>
+        <v>720</v>
       </c>
       <c r="D13" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1071,13 +1054,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2">
-        <v>1800</v>
+        <v>960</v>
       </c>
       <c r="D14" s="2">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1085,13 +1068,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
-        <v>2100</v>
+        <v>1080</v>
       </c>
       <c r="D15" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1099,13 +1082,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1113,13 +1096,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="D17" s="2">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1127,13 +1110,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
-        <v>3600</v>
+        <v>1680</v>
       </c>
       <c r="D18" s="2">
-        <v>320</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1141,13 +1124,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2">
-        <v>4200</v>
+        <v>1920</v>
       </c>
       <c r="D19" s="2">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1155,13 +1138,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
-        <v>4800</v>
+        <v>2160</v>
       </c>
       <c r="D20" s="2">
-        <v>400</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1169,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2">
-        <v>5400</v>
+        <v>2400</v>
       </c>
       <c r="D21" s="2">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1183,13 +1166,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2">
-        <v>6000</v>
+        <v>2880</v>
       </c>
       <c r="D22" s="2">
-        <v>500</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1197,13 +1180,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2">
-        <v>6600</v>
+        <v>3360</v>
       </c>
       <c r="D23" s="2">
-        <v>550</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1211,13 +1194,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2">
-        <v>7200</v>
+        <v>3840</v>
       </c>
       <c r="D24" s="2">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1225,13 +1208,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2">
-        <v>7800</v>
+        <v>4320</v>
       </c>
       <c r="D25" s="2">
-        <v>660</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1239,13 +1222,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="D26" s="2">
-        <v>720</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1253,13 +1236,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2">
-        <v>9000</v>
+        <v>5520</v>
       </c>
       <c r="D27" s="2">
-        <v>780</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1267,13 +1250,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2">
-        <v>9600</v>
+        <v>6240</v>
       </c>
       <c r="D28" s="2">
-        <v>840</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1281,13 +1264,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2">
-        <v>10200</v>
+        <v>6960</v>
       </c>
       <c r="D29" s="2">
-        <v>900</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1295,13 +1278,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2">
-        <v>10800</v>
+        <v>7680</v>
       </c>
       <c r="D30" s="2">
-        <v>970</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1309,13 +1292,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2">
-        <v>11400</v>
+        <v>8400</v>
       </c>
       <c r="D31" s="2">
-        <v>1040</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1323,13 +1306,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2">
-        <v>12000</v>
+        <v>9120</v>
       </c>
       <c r="D32" s="2">
-        <v>1110</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1337,13 +1320,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2">
-        <v>12600</v>
+        <v>9840</v>
       </c>
       <c r="D33" s="2">
-        <v>1180</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1351,13 +1334,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2">
-        <v>13200</v>
+        <v>10560</v>
       </c>
       <c r="D34" s="2">
-        <v>1250</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1365,13 +1348,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2">
-        <v>13800</v>
+        <v>11280</v>
       </c>
       <c r="D35" s="2">
-        <v>1320</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1379,13 +1362,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="D36" s="2">
-        <v>1400</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1393,13 +1376,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2">
-        <v>15300</v>
+        <v>12960</v>
       </c>
       <c r="D37" s="2">
-        <v>1480</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1407,13 +1390,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2">
-        <v>16200</v>
+        <v>13920</v>
       </c>
       <c r="D38" s="2">
-        <v>1560</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1421,13 +1404,13 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2">
-        <v>17100</v>
+        <v>14880</v>
       </c>
       <c r="D39" s="2">
-        <v>1640</v>
+        <v>990</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1435,13 +1418,13 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="2">
-        <v>18000</v>
+        <v>15840</v>
       </c>
       <c r="D40" s="2">
-        <v>1720</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1449,13 +1432,13 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="2">
-        <v>18900</v>
+        <v>16800</v>
       </c>
       <c r="D41" s="2">
-        <v>1800</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1463,13 +1446,13 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2">
-        <v>19800</v>
+        <v>18000</v>
       </c>
       <c r="D42" s="2">
-        <v>1890</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1477,13 +1460,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2">
-        <v>20700</v>
+        <v>19200</v>
       </c>
       <c r="D43" s="2">
-        <v>1980</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1491,13 +1474,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2">
-        <v>21600</v>
+        <v>20400</v>
       </c>
       <c r="D44" s="2">
-        <v>2070</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1505,13 +1488,13 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="D45" s="2">
-        <v>2160</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1519,13 +1502,13 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2">
-        <v>23400</v>
+        <v>23040</v>
       </c>
       <c r="D46" s="2">
-        <v>2250</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1533,13 +1516,13 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2">
-        <v>24600</v>
+        <v>24480</v>
       </c>
       <c r="D47" s="2">
-        <v>2350</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1547,13 +1530,13 @@
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2">
-        <v>25800</v>
+        <v>25920</v>
       </c>
       <c r="D48" s="2">
-        <v>2450</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1561,13 +1544,13 @@
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2">
-        <v>27000</v>
+        <v>27360</v>
       </c>
       <c r="D49" s="2">
-        <v>2550</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1575,13 +1558,13 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="D50" s="2">
-        <v>2650</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1589,13 +1572,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2">
-        <v>29400</v>
+        <v>30240</v>
       </c>
       <c r="D51" s="2">
-        <v>2750</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1603,13 +1586,13 @@
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2">
-        <v>30600</v>
+        <v>31680</v>
       </c>
       <c r="D52" s="2">
-        <v>2860</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1617,13 +1600,13 @@
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2">
-        <v>31800</v>
+        <v>33120</v>
       </c>
       <c r="D53" s="2">
-        <v>2970</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1631,13 +1614,13 @@
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2">
-        <v>33000</v>
+        <v>34560</v>
       </c>
       <c r="D54" s="2">
-        <v>3080</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1645,13 +1628,13 @@
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="2">
-        <v>34200</v>
+        <v>36000</v>
       </c>
       <c r="D55" s="2">
-        <v>3190</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1662,10 +1645,10 @@
         <v>136</v>
       </c>
       <c r="C56" s="2">
-        <v>35400</v>
+        <v>37440</v>
       </c>
       <c r="D56" s="2">
-        <v>3300</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1673,13 +1656,13 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" s="2">
-        <v>36900</v>
+        <v>38880</v>
       </c>
       <c r="D57" s="2">
-        <v>3420</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1687,13 +1670,13 @@
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="2">
-        <v>38400</v>
+        <v>40320</v>
       </c>
       <c r="D58" s="2">
-        <v>3540</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1701,13 +1684,13 @@
         <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2">
-        <v>39900</v>
+        <v>41760</v>
       </c>
       <c r="D59" s="2">
-        <v>3660</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1715,13 +1698,13 @@
         <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2">
-        <v>41400</v>
+        <v>43200</v>
       </c>
       <c r="D60" s="2">
-        <v>3780</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1729,13 +1712,13 @@
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2">
-        <v>42900</v>
+        <v>44640</v>
       </c>
       <c r="D61" s="2">
-        <v>3900</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1743,13 +1726,13 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" s="2">
-        <v>44400</v>
+        <v>46080</v>
       </c>
       <c r="D62" s="2">
-        <v>4030</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1757,13 +1740,13 @@
         <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2">
-        <v>45900</v>
+        <v>47520</v>
       </c>
       <c r="D63" s="2">
-        <v>4160</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1771,13 +1754,13 @@
         <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2">
-        <v>47400</v>
+        <v>48960</v>
       </c>
       <c r="D64" s="2">
-        <v>4290</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1785,13 +1768,13 @@
         <v>59</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2">
-        <v>48900</v>
+        <v>50400</v>
       </c>
       <c r="D65" s="2">
-        <v>4420</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1799,13 +1782,13 @@
         <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2">
-        <v>50400</v>
+        <v>51840</v>
       </c>
       <c r="D66" s="2">
-        <v>4550</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1813,13 +1796,13 @@
         <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2">
-        <v>52200</v>
+        <v>53280</v>
       </c>
       <c r="D67" s="2">
-        <v>4690</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1827,13 +1810,13 @@
         <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2">
-        <v>54000</v>
+        <v>54720</v>
       </c>
       <c r="D68" s="2">
-        <v>4830</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1841,13 +1824,13 @@
         <v>63</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="2">
-        <v>55800</v>
+        <v>56160</v>
       </c>
       <c r="D69" s="2">
-        <v>4970</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1855,13 +1838,13 @@
         <v>64</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2">
         <v>57600</v>
       </c>
       <c r="D70" s="2">
-        <v>5110</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1869,13 +1852,13 @@
         <v>65</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2">
-        <v>59400</v>
+        <v>59040</v>
       </c>
       <c r="D71" s="2">
-        <v>5250</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1883,13 +1866,13 @@
         <v>66</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2">
-        <v>61200</v>
+        <v>60480</v>
       </c>
       <c r="D72" s="2">
-        <v>5400</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1897,13 +1880,13 @@
         <v>67</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2">
-        <v>63000</v>
+        <v>61920</v>
       </c>
       <c r="D73" s="2">
-        <v>5550</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1911,13 +1894,13 @@
         <v>68</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2">
-        <v>64800</v>
+        <v>63360</v>
       </c>
       <c r="D74" s="2">
-        <v>5700</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1925,13 +1908,13 @@
         <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2">
-        <v>66600</v>
+        <v>64800</v>
       </c>
       <c r="D75" s="2">
-        <v>5850</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1939,13 +1922,13 @@
         <v>70</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2">
-        <v>68400</v>
+        <v>66240</v>
       </c>
       <c r="D76" s="2">
-        <v>6000</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1953,13 +1936,13 @@
         <v>71</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2">
-        <v>70800</v>
+        <v>67680</v>
       </c>
       <c r="D77" s="2">
-        <v>6160</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1967,13 +1950,13 @@
         <v>72</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C78" s="2">
-        <v>73200</v>
+        <v>69120</v>
       </c>
       <c r="D78" s="2">
-        <v>6320</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1981,13 +1964,13 @@
         <v>73</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C79" s="2">
-        <v>75600</v>
+        <v>70560</v>
       </c>
       <c r="D79" s="2">
-        <v>6480</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1995,13 +1978,13 @@
         <v>74</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2">
-        <v>78000</v>
+        <v>72000</v>
       </c>
       <c r="D80" s="2">
-        <v>6640</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2009,13 +1992,13 @@
         <v>75</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2">
-        <v>80400</v>
+        <v>73440</v>
       </c>
       <c r="D81" s="2">
-        <v>6800</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2023,13 +2006,13 @@
         <v>76</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2">
-        <v>82800</v>
+        <v>74880</v>
       </c>
       <c r="D82" s="2">
-        <v>6980</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2037,13 +2020,13 @@
         <v>77</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2">
-        <v>85200</v>
+        <v>76320</v>
       </c>
       <c r="D83" s="2">
-        <v>7160</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2051,13 +2034,13 @@
         <v>78</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2">
-        <v>87600</v>
+        <v>77760</v>
       </c>
       <c r="D84" s="2">
-        <v>7340</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2065,13 +2048,13 @@
         <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85" s="2">
-        <v>90000</v>
+        <v>79200</v>
       </c>
       <c r="D85" s="2">
-        <v>7520</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2079,13 +2062,13 @@
         <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2">
-        <v>92400</v>
+        <v>80640</v>
       </c>
       <c r="D86" s="2">
-        <v>7700</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2093,13 +2076,13 @@
         <v>81</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C87" s="2">
-        <v>95400</v>
+        <v>82080</v>
       </c>
       <c r="D87" s="2">
-        <v>7900</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2107,13 +2090,13 @@
         <v>82</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C88" s="2">
-        <v>98400</v>
+        <v>83520</v>
       </c>
       <c r="D88" s="2">
-        <v>8100</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2121,13 +2104,13 @@
         <v>83</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2">
-        <v>101400</v>
+        <v>84960</v>
       </c>
       <c r="D89" s="2">
-        <v>8300</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2135,13 +2118,13 @@
         <v>84</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2">
-        <v>104400</v>
+        <v>86400</v>
       </c>
       <c r="D90" s="2">
-        <v>8500</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2152,10 +2135,10 @@
         <v>137</v>
       </c>
       <c r="C91" s="2">
-        <v>107400</v>
+        <v>87840</v>
       </c>
       <c r="D91" s="2">
-        <v>8700</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2163,13 +2146,13 @@
         <v>86</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2">
-        <v>110400</v>
+        <v>89280</v>
       </c>
       <c r="D92" s="2">
-        <v>8900</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2177,13 +2160,13 @@
         <v>87</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2">
-        <v>113400</v>
+        <v>90720</v>
       </c>
       <c r="D93" s="2">
-        <v>9100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2191,13 +2174,13 @@
         <v>88</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2">
-        <v>116400</v>
+        <v>92160</v>
       </c>
       <c r="D94" s="2">
-        <v>9300</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2205,13 +2188,13 @@
         <v>89</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2">
-        <v>119400</v>
+        <v>93600</v>
       </c>
       <c r="D95" s="2">
-        <v>9500</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2219,45 +2202,17 @@
         <v>90</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2">
-        <v>122400</v>
+        <v>95040</v>
       </c>
       <c r="D96" s="2">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
-        <v>91</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="2">
-        <v>125400</v>
-      </c>
-      <c r="D97" s="2">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
-        <v>92</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="2">
-        <v>128400</v>
-      </c>
-      <c r="D98" s="2">
-        <v>10000</v>
+        <v>4210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D90"/>
+  <autoFilter ref="A1:D96"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/kittyserver/gametools/parseExcelTool/Excel/Spread.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Spread.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japan\Plan\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">扩地表_3_Spread!$A$1:$D$96</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -485,8 +490,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,9 +645,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,6 +680,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,17 +856,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B91" sqref="B91:B96"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="36.25" style="2" customWidth="1"/>
@@ -867,7 +874,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -895,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -937,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -962,10 +969,10 @@
         <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -976,10 +983,10 @@
         <v>120</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -990,10 +997,10 @@
         <v>240</v>
       </c>
       <c r="D9" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1004,10 +1011,10 @@
         <v>360</v>
       </c>
       <c r="D10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1018,10 +1025,10 @@
         <v>480</v>
       </c>
       <c r="D11" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1032,10 +1039,10 @@
         <v>600</v>
       </c>
       <c r="D12" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1046,10 +1053,10 @@
         <v>720</v>
       </c>
       <c r="D13" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1060,10 +1067,10 @@
         <v>960</v>
       </c>
       <c r="D14" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -1074,10 +1081,10 @@
         <v>1080</v>
       </c>
       <c r="D15" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -1088,10 +1095,10 @@
         <v>1200</v>
       </c>
       <c r="D16" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -1102,10 +1109,10 @@
         <v>1440</v>
       </c>
       <c r="D17" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -1116,10 +1123,10 @@
         <v>1680</v>
       </c>
       <c r="D18" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -1130,10 +1137,10 @@
         <v>1920</v>
       </c>
       <c r="D19" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1144,10 +1151,10 @@
         <v>2160</v>
       </c>
       <c r="D20" s="2">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -1158,10 +1165,10 @@
         <v>2400</v>
       </c>
       <c r="D21" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -1172,10 +1179,10 @@
         <v>2880</v>
       </c>
       <c r="D22" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -1186,10 +1193,10 @@
         <v>3360</v>
       </c>
       <c r="D23" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -1200,10 +1207,10 @@
         <v>3840</v>
       </c>
       <c r="D24" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -1214,10 +1221,10 @@
         <v>4320</v>
       </c>
       <c r="D25" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -1228,10 +1235,10 @@
         <v>4800</v>
       </c>
       <c r="D26" s="2">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -1242,10 +1249,10 @@
         <v>5520</v>
       </c>
       <c r="D27" s="2">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1256,10 +1263,10 @@
         <v>6240</v>
       </c>
       <c r="D28" s="2">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -1270,10 +1277,10 @@
         <v>6960</v>
       </c>
       <c r="D29" s="2">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>24</v>
       </c>
@@ -1284,10 +1291,10 @@
         <v>7680</v>
       </c>
       <c r="D30" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -1298,10 +1305,10 @@
         <v>8400</v>
       </c>
       <c r="D31" s="2">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>26</v>
       </c>
@@ -1312,10 +1319,10 @@
         <v>9120</v>
       </c>
       <c r="D32" s="2">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -1326,10 +1333,10 @@
         <v>9840</v>
       </c>
       <c r="D33" s="2">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>28</v>
       </c>
@@ -1340,10 +1347,10 @@
         <v>10560</v>
       </c>
       <c r="D34" s="2">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>29</v>
       </c>
@@ -1354,10 +1361,10 @@
         <v>11280</v>
       </c>
       <c r="D35" s="2">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>30</v>
       </c>
@@ -1368,10 +1375,10 @@
         <v>12000</v>
       </c>
       <c r="D36" s="2">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>31</v>
       </c>
@@ -1382,10 +1389,10 @@
         <v>12960</v>
       </c>
       <c r="D37" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>32</v>
       </c>
@@ -1396,10 +1403,10 @@
         <v>13920</v>
       </c>
       <c r="D38" s="2">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -1410,10 +1417,10 @@
         <v>14880</v>
       </c>
       <c r="D39" s="2">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>34</v>
       </c>
@@ -1424,10 +1431,10 @@
         <v>15840</v>
       </c>
       <c r="D40" s="2">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>35</v>
       </c>
@@ -1438,10 +1445,10 @@
         <v>16800</v>
       </c>
       <c r="D41" s="2">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>36</v>
       </c>
@@ -1452,10 +1459,10 @@
         <v>18000</v>
       </c>
       <c r="D42" s="2">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -1466,10 +1473,10 @@
         <v>19200</v>
       </c>
       <c r="D43" s="2">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>38</v>
       </c>
@@ -1480,10 +1487,10 @@
         <v>20400</v>
       </c>
       <c r="D44" s="2">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -1494,10 +1501,10 @@
         <v>21600</v>
       </c>
       <c r="D45" s="2">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>40</v>
       </c>
@@ -1508,10 +1515,10 @@
         <v>23040</v>
       </c>
       <c r="D46" s="2">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -1522,10 +1529,10 @@
         <v>24480</v>
       </c>
       <c r="D47" s="2">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -1536,10 +1543,10 @@
         <v>25920</v>
       </c>
       <c r="D48" s="2">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -1550,10 +1557,10 @@
         <v>27360</v>
       </c>
       <c r="D49" s="2">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -1564,10 +1571,10 @@
         <v>28800</v>
       </c>
       <c r="D50" s="2">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -1578,10 +1585,10 @@
         <v>30240</v>
       </c>
       <c r="D51" s="2">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>46</v>
       </c>
@@ -1592,10 +1599,10 @@
         <v>31680</v>
       </c>
       <c r="D52" s="2">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>47</v>
       </c>
@@ -1606,10 +1613,10 @@
         <v>33120</v>
       </c>
       <c r="D53" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -1620,10 +1627,10 @@
         <v>34560</v>
       </c>
       <c r="D54" s="2">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>49</v>
       </c>
@@ -1634,10 +1641,10 @@
         <v>36000</v>
       </c>
       <c r="D55" s="2">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -1648,10 +1655,10 @@
         <v>37440</v>
       </c>
       <c r="D56" s="2">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>51</v>
       </c>
@@ -1662,10 +1669,10 @@
         <v>38880</v>
       </c>
       <c r="D57" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>52</v>
       </c>
@@ -1676,10 +1683,10 @@
         <v>40320</v>
       </c>
       <c r="D58" s="2">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -1690,10 +1697,10 @@
         <v>41760</v>
       </c>
       <c r="D59" s="2">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>54</v>
       </c>
@@ -1704,10 +1711,10 @@
         <v>43200</v>
       </c>
       <c r="D60" s="2">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>55</v>
       </c>
@@ -1718,10 +1725,10 @@
         <v>44640</v>
       </c>
       <c r="D61" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>56</v>
       </c>
@@ -1732,10 +1739,10 @@
         <v>46080</v>
       </c>
       <c r="D62" s="2">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -1746,10 +1753,10 @@
         <v>47520</v>
       </c>
       <c r="D63" s="2">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>58</v>
       </c>
@@ -1760,10 +1767,10 @@
         <v>48960</v>
       </c>
       <c r="D64" s="2">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>59</v>
       </c>
@@ -1774,10 +1781,10 @@
         <v>50400</v>
       </c>
       <c r="D65" s="2">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -1788,10 +1795,10 @@
         <v>51840</v>
       </c>
       <c r="D66" s="2">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>61</v>
       </c>
@@ -1802,10 +1809,10 @@
         <v>53280</v>
       </c>
       <c r="D67" s="2">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>62</v>
       </c>
@@ -1816,10 +1823,10 @@
         <v>54720</v>
       </c>
       <c r="D68" s="2">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>63</v>
       </c>
@@ -1830,10 +1837,10 @@
         <v>56160</v>
       </c>
       <c r="D69" s="2">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>64</v>
       </c>
@@ -1844,10 +1851,10 @@
         <v>57600</v>
       </c>
       <c r="D70" s="2">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>65</v>
       </c>
@@ -1858,10 +1865,10 @@
         <v>59040</v>
       </c>
       <c r="D71" s="2">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>66</v>
       </c>
@@ -1872,10 +1879,10 @@
         <v>60480</v>
       </c>
       <c r="D72" s="2">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>67</v>
       </c>
@@ -1886,10 +1893,10 @@
         <v>61920</v>
       </c>
       <c r="D73" s="2">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>68</v>
       </c>
@@ -1900,10 +1907,10 @@
         <v>63360</v>
       </c>
       <c r="D74" s="2">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>69</v>
       </c>
@@ -1914,10 +1921,10 @@
         <v>64800</v>
       </c>
       <c r="D75" s="2">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>70</v>
       </c>
@@ -1928,10 +1935,10 @@
         <v>66240</v>
       </c>
       <c r="D76" s="2">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>71</v>
       </c>
@@ -1942,10 +1949,10 @@
         <v>67680</v>
       </c>
       <c r="D77" s="2">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>72</v>
       </c>
@@ -1956,10 +1963,10 @@
         <v>69120</v>
       </c>
       <c r="D78" s="2">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>73</v>
       </c>
@@ -1970,10 +1977,10 @@
         <v>70560</v>
       </c>
       <c r="D79" s="2">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>74</v>
       </c>
@@ -1984,10 +1991,10 @@
         <v>72000</v>
       </c>
       <c r="D80" s="2">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>75</v>
       </c>
@@ -1998,10 +2005,10 @@
         <v>73440</v>
       </c>
       <c r="D81" s="2">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>76</v>
       </c>
@@ -2012,10 +2019,10 @@
         <v>74880</v>
       </c>
       <c r="D82" s="2">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>77</v>
       </c>
@@ -2026,10 +2033,10 @@
         <v>76320</v>
       </c>
       <c r="D83" s="2">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>78</v>
       </c>
@@ -2040,10 +2047,10 @@
         <v>77760</v>
       </c>
       <c r="D84" s="2">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>79</v>
       </c>
@@ -2054,10 +2061,10 @@
         <v>79200</v>
       </c>
       <c r="D85" s="2">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>80</v>
       </c>
@@ -2068,10 +2075,10 @@
         <v>80640</v>
       </c>
       <c r="D86" s="2">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>81</v>
       </c>
@@ -2082,10 +2089,10 @@
         <v>82080</v>
       </c>
       <c r="D87" s="2">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>82</v>
       </c>
@@ -2096,10 +2103,10 @@
         <v>83520</v>
       </c>
       <c r="D88" s="2">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>83</v>
       </c>
@@ -2110,10 +2117,10 @@
         <v>84960</v>
       </c>
       <c r="D89" s="2">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>84</v>
       </c>
@@ -2124,10 +2131,10 @@
         <v>86400</v>
       </c>
       <c r="D90" s="2">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>85</v>
       </c>
@@ -2138,10 +2145,10 @@
         <v>87840</v>
       </c>
       <c r="D91" s="2">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>86</v>
       </c>
@@ -2152,10 +2159,10 @@
         <v>89280</v>
       </c>
       <c r="D92" s="2">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>87</v>
       </c>
@@ -2166,10 +2173,10 @@
         <v>90720</v>
       </c>
       <c r="D93" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>88</v>
       </c>
@@ -2180,10 +2187,10 @@
         <v>92160</v>
       </c>
       <c r="D94" s="2">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>89</v>
       </c>
@@ -2194,10 +2201,10 @@
         <v>93600</v>
       </c>
       <c r="D95" s="2">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>90</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>95040</v>
       </c>
       <c r="D96" s="2">
-        <v>4210</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2220,21 +2227,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
@@ -2251,7 +2258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2351,7 +2358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2392,7 +2399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>3001_2,3002_2,3009_2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>3001_3,3002_2,3009_2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>3001_3,3002_3,3009_2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>3001_3,3002_3,3009_3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>3001_4,3002_3,3009_3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>3001_4,3002_4,3009_3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>3001_4,3002_4,3009_4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>3001_5,3002_5,3009_5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>3001_6,3002_6,3009_6</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>3001_7,3002_7,3009_7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>3001_8,3002_8,3009_8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>3001_9,3002_9,3009_9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>3001_10,3002_10,3009_10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>3001_11,3002_11,3009_11</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>3001_12,3002_12,3009_12</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>3001_13,3002_13,3009_13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2808,7 +2815,7 @@
         <v>3001_14,3002_14,3009_14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2830,7 +2837,7 @@
         <v>3001_15,3002_15,3009_15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>3001_16,3002_16,3009_16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>3001_17,3002_17,3009_17</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2896,7 +2903,7 @@
         <v>3001_18,3002_18,3009_18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>3001_19,3002_19,3009_19</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>3001_20,3002_20,3009_20</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2962,7 +2969,7 @@
         <v>3001_21,3002_21,3009_21</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2984,7 +2991,7 @@
         <v>3001_22,3002_22,3009_22</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3006,7 +3013,7 @@
         <v>3001_23,3002_23,3009_23</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>3001_24,3002_24,3009_24</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3050,7 +3057,7 @@
         <v>3001_25,3002_25,3009_25</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>3001_26,3002_26,3009_26</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3094,7 +3101,7 @@
         <v>3001_27,3002_27,3009_27</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>3001_28,3002_28,3009_28</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>3001_29,3002_29,3009_29</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3160,7 +3167,7 @@
         <v>3001_30,3002_30,3009_30</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>3001_31,3002_31,3009_31</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3204,7 +3211,7 @@
         <v>3001_32,3002_32,3009_32</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>3001_33,3002_33,3009_33</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>3001_34,3002_34,3009_34</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3270,7 +3277,7 @@
         <v>3001_35,3002_35,3009_35</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>3001_36,3002_36,3009_36</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3314,7 +3321,7 @@
         <v>3001_37,3002_37,3009_37</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>3001_38,3002_38,3009_38</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>3001_39,3002_39,3009_39</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3401,7 +3408,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3506,7 +3513,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3527,7 +3534,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3590,7 +3597,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3674,7 +3681,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3737,7 +3744,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3758,7 +3765,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3800,7 +3807,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3842,7 +3849,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3905,7 +3912,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3947,7 +3954,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3968,7 +3975,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3989,7 +3996,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4094,7 +4101,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4115,7 +4122,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4157,7 +4164,7 @@
         <v>3001_40,3002_40,3009_40</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4181,5 +4188,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>